--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/repayment/RepaymentTestCase.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/repayment/RepaymentTestCase.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="94">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -380,10 +380,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>png/id.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6013826015002711858</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -422,9 +418,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>'838388@192.com</t>
-  </si>
-  <si>
     <t>income_index_improve</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -493,15 +486,37 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Norelco99887780</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2299900080</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18100003080</t>
+    <t>username_admin</t>
+  </si>
+  <si>
+    <t>password_admin</t>
+  </si>
+  <si>
+    <t>838388@192.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hanjunchao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hanjunchao2016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>png/id.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Norelco1139</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44781139</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19100001139</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -866,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR2"/>
+  <dimension ref="A1:AT2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -911,11 +926,11 @@
     <col min="36" max="36" width="22.6640625" customWidth="1"/>
     <col min="37" max="38" width="20.6640625" customWidth="1"/>
     <col min="39" max="39" width="23" customWidth="1"/>
-    <col min="40" max="42" width="20.6640625" customWidth="1"/>
-    <col min="44" max="44" width="13" customWidth="1"/>
+    <col min="40" max="44" width="20.6640625" customWidth="1"/>
+    <col min="46" max="46" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -983,10 +998,10 @@
         <v>26</v>
       </c>
       <c r="W1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="X1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y1" t="s">
         <v>27</v>
@@ -995,7 +1010,7 @@
         <v>28</v>
       </c>
       <c r="AA1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AB1" t="s">
         <v>29</v>
@@ -1043,24 +1058,30 @@
         <v>43</v>
       </c>
       <c r="AQ1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS1" t="s">
         <v>4</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AT1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>71</v>
@@ -1084,7 +1105,7 @@
         <v>69</v>
       </c>
       <c r="L2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>61</v>
@@ -1111,19 +1132,19 @@
         <v>53</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>71</v>
       </c>
       <c r="W2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="Y2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="Z2" t="s">
         <v>54</v>
@@ -1162,10 +1183,10 @@
         <v>67</v>
       </c>
       <c r="AL2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM2" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="AN2" t="s">
         <v>60</v>
@@ -1176,8 +1197,14 @@
       <c r="AP2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AR2" t="s">
-        <v>84</v>
+      <c r="AQ2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1214,7 +1241,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -1225,7 +1252,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.2">
@@ -1233,7 +1260,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/repayment/RepaymentTestCase.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/repayment/RepaymentTestCase.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26812"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/web_ui_auto_testing/src/main/resources/resources/TestData/com/nonobank/apps/testcase/repayment/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12045" windowHeight="7125"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="comment" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -210,10 +206,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>37028219921030111X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>管理学</t>
     <rPh sb="0" eb="1">
       <t>guan'l</t>
@@ -517,14 +509,18 @@
   </si>
   <si>
     <t>19100001139</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdCardGenerator.generateUnUsedIdCardNumberByAge(24)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -883,54 +879,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="16.83203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.1640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.375" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" customWidth="1"/>
-    <col min="10" max="10" width="16.83203125" customWidth="1"/>
-    <col min="11" max="11" width="11.83203125" customWidth="1"/>
+    <col min="7" max="7" width="21.375" customWidth="1"/>
+    <col min="8" max="8" width="16.125" customWidth="1"/>
+    <col min="9" max="9" width="17.375" customWidth="1"/>
+    <col min="10" max="10" width="16.875" customWidth="1"/>
+    <col min="11" max="11" width="11.875" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="21.6640625" customWidth="1"/>
-    <col min="14" max="14" width="15.83203125" customWidth="1"/>
-    <col min="15" max="15" width="18.83203125" customWidth="1"/>
+    <col min="13" max="13" width="21.625" customWidth="1"/>
+    <col min="14" max="14" width="15.875" customWidth="1"/>
+    <col min="15" max="15" width="18.875" customWidth="1"/>
     <col min="16" max="16" width="13" customWidth="1"/>
     <col min="17" max="17" width="15" customWidth="1"/>
-    <col min="18" max="18" width="15.33203125" customWidth="1"/>
+    <col min="18" max="18" width="15.375" customWidth="1"/>
     <col min="19" max="19" width="13" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="23.5" customWidth="1"/>
     <col min="21" max="21" width="12" customWidth="1"/>
-    <col min="22" max="22" width="13.83203125" customWidth="1"/>
+    <col min="22" max="22" width="13.875" customWidth="1"/>
     <col min="23" max="23" width="20" customWidth="1"/>
-    <col min="24" max="24" width="16.1640625" customWidth="1"/>
+    <col min="24" max="24" width="16.125" customWidth="1"/>
     <col min="25" max="25" width="16" customWidth="1"/>
     <col min="26" max="26" width="25" customWidth="1"/>
-    <col min="27" max="27" width="21.33203125" customWidth="1"/>
-    <col min="28" max="28" width="20.6640625" customWidth="1"/>
-    <col min="29" max="29" width="18.83203125" customWidth="1"/>
-    <col min="30" max="30" width="21.6640625" customWidth="1"/>
+    <col min="27" max="27" width="21.375" customWidth="1"/>
+    <col min="28" max="28" width="20.625" customWidth="1"/>
+    <col min="29" max="29" width="18.875" customWidth="1"/>
+    <col min="30" max="30" width="21.625" customWidth="1"/>
     <col min="31" max="31" width="22" customWidth="1"/>
-    <col min="32" max="32" width="18.6640625" customWidth="1"/>
-    <col min="33" max="33" width="19.33203125" customWidth="1"/>
-    <col min="34" max="34" width="18.6640625" customWidth="1"/>
+    <col min="32" max="32" width="18.625" customWidth="1"/>
+    <col min="33" max="33" width="19.375" customWidth="1"/>
+    <col min="34" max="34" width="18.625" customWidth="1"/>
     <col min="35" max="35" width="21.5" customWidth="1"/>
-    <col min="36" max="36" width="22.6640625" customWidth="1"/>
-    <col min="37" max="38" width="20.6640625" customWidth="1"/>
+    <col min="36" max="36" width="22.625" customWidth="1"/>
+    <col min="37" max="38" width="20.625" customWidth="1"/>
     <col min="39" max="39" width="23" customWidth="1"/>
-    <col min="40" max="44" width="20.6640625" customWidth="1"/>
+    <col min="40" max="44" width="20.625" customWidth="1"/>
     <col min="46" max="46" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:46">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -998,10 +994,10 @@
         <v>26</v>
       </c>
       <c r="W1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Y1" t="s">
         <v>27</v>
@@ -1010,7 +1006,7 @@
         <v>28</v>
       </c>
       <c r="AA1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AB1" t="s">
         <v>29</v>
@@ -1058,10 +1054,10 @@
         <v>43</v>
       </c>
       <c r="AQ1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR1" t="s">
         <v>85</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>86</v>
       </c>
       <c r="AS1" t="s">
         <v>4</v>
@@ -1070,21 +1066,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:46">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F2" t="s">
         <v>44</v>
@@ -1102,109 +1098,109 @@
         <v>47</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N2" t="s">
         <v>48</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="P2" t="s">
         <v>49</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>50</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S2" t="s">
         <v>51</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="T2" t="s">
+        <v>52</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="S2" t="s">
-        <v>52</v>
-      </c>
-      <c r="T2" t="s">
-        <v>53</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="V2" s="1" t="s">
+      <c r="AD2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="W2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="AN2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="Z2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AR2" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="AT2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1222,13 +1218,13 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="11.375" customWidth="1"/>
+    <col min="2" max="2" width="26.625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="27.95" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1236,31 +1232,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="66.95" customHeight="1">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="35.1" customHeight="1">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="32.1" customHeight="1">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/repayment/RepaymentTestCase.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/repayment/RepaymentTestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12045" windowHeight="7125"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12255" windowHeight="7125"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -372,10 +372,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6013826015002711858</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>500</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -500,19 +496,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Norelco1139</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>44781139</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19100001139</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${IdCardGenerator.generateUnUsedIdCardNumberByAge(24)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getUnUsedBankCard(622202100112)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${QQUtils.genUnRegisterQQ()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnregisterMobile()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnUserdUserNname()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -879,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -994,10 +994,10 @@
         <v>26</v>
       </c>
       <c r="W1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="X1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y1" t="s">
         <v>27</v>
@@ -1006,7 +1006,7 @@
         <v>28</v>
       </c>
       <c r="AA1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB1" t="s">
         <v>29</v>
@@ -1054,10 +1054,10 @@
         <v>43</v>
       </c>
       <c r="AQ1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AR1" t="s">
         <v>84</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>85</v>
       </c>
       <c r="AS1" t="s">
         <v>4</v>
@@ -1068,10 +1068,10 @@
     </row>
     <row r="2" spans="1:46">
       <c r="A2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" t="s">
-        <v>90</v>
+        <v>82</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>91</v>
@@ -1101,7 +1101,7 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>60</v>
@@ -1110,7 +1110,7 @@
         <v>48</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="P2" t="s">
         <v>49</v>
@@ -1128,19 +1128,19 @@
         <v>52</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>70</v>
       </c>
       <c r="W2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="Y2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z2" t="s">
         <v>53</v>
@@ -1179,10 +1179,10 @@
         <v>66</v>
       </c>
       <c r="AL2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="AN2" t="s">
         <v>59</v>
@@ -1194,13 +1194,13 @@
         <v>61</v>
       </c>
       <c r="AQ2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AR2" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="AT2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1237,7 +1237,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -1248,7 +1248,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="32.1" customHeight="1">
@@ -1256,7 +1256,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
